--- a/biology/Zoologie/Indophyllia/Indophyllia.xlsx
+++ b/biology/Zoologie/Indophyllia/Indophyllia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indophyllia est un genre éteint de scléractiniaires (coraux durs). Bien que parfois assigné à la famille des Mussidae, ce genre est actuellement considéré comme de position incertaine au sein de l'arbre phylogénique des coraux durs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indophyllia est un genre éteint de scléractiniaires (coraux durs). Bien que parfois assigné à la famille des Mussidae, ce genre est actuellement considéré comme de position incertaine au sein de l'arbre phylogénique des coraux durs.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Indophyllia comprend les espèces suivantes :
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gerth : « Coelenterata. Anthozoa ». in Martin, 1921 : « Die Fossilien von Java auf Grund einer Sammlung von Dr. R.D.M. Verbeek und von Anderen ». Sammlungen des Geologischen Reichs-Museums in Leiden, vol. 1, n. 2, pp. 387-445.</t>
         </is>
